--- a/Considerations.xlsx
+++ b/Considerations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu\ti\MechProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E5C0F-A8CF-41BD-9CEC-709CB71B81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302001D-7CBF-4CD7-9158-64421718B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="753" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,51 +1310,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,6 +1373,87 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,89 +1463,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1473,7 +1473,125 @@
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2131,174 +2249,174 @@
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52" t="s">
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52" t="s">
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52" t="s">
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52" t="s">
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52" t="s">
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52" t="s">
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="59"/>
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="54"/>
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="54"/>
+      <c r="BP4" s="54"/>
+      <c r="BQ4" s="54"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="55"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
-      <c r="BJ5" s="61"/>
-      <c r="BK5" s="61"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="61"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="61"/>
-      <c r="BP5" s="61"/>
-      <c r="BQ5" s="61"/>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="62"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="58"/>
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="58"/>
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="59"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
@@ -2307,101 +2425,101 @@
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="53" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53" t="s">
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="60"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
+      <c r="BQ6" s="56"/>
+      <c r="BR6" s="56"/>
+      <c r="BS6" s="57"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
@@ -2464,7 +2582,7 @@
       <c r="A8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2517,22 +2635,22 @@
       <c r="BS8" s="6"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -2591,7 +2709,7 @@
       <c r="BS9" s="6"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2643,26 +2761,26 @@
       <c r="BS10" s="6"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -2717,7 +2835,7 @@
       <c r="BS11" s="6"/>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2773,30 +2891,30 @@
       <c r="BS12" s="6"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="18"/>
@@ -2847,7 +2965,7 @@
       <c r="BS13" s="6"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2904,7 +3022,7 @@
       <c r="BS14" s="6"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2912,20 +3030,20 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -2954,7 +3072,7 @@
       <c r="BS15" s="6"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2988,7 +3106,7 @@
       <c r="BS16" s="6"/>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2997,21 +3115,21 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="18"/>
@@ -3061,7 +3179,7 @@
       <c r="BS17" s="6"/>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3118,7 +3236,7 @@
       <c r="BS18" s="6"/>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3127,22 +3245,22 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="19"/>
@@ -3192,7 +3310,7 @@
       <c r="BS19" s="6"/>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3250,7 +3368,7 @@
       <c r="BS20" s="6"/>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3259,23 +3377,23 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="13"/>
@@ -3324,7 +3442,7 @@
       <c r="BS21" s="6"/>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3349,33 +3467,33 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="18"/>
-      <c r="AA22" s="49" t="s">
+      <c r="AA22" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="54"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="63"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
@@ -3398,7 +3516,7 @@
       <c r="BS22" s="6"/>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3451,7 +3569,7 @@
       <c r="BS23" s="6"/>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -3478,27 +3596,27 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="50" t="s">
+      <c r="AC24" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
+      <c r="AS24" s="61"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="61"/>
       <c r="AV24" s="12"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
@@ -3525,7 +3643,7 @@
       <c r="BS24" s="6"/>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -3575,31 +3693,31 @@
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="25"/>
-      <c r="AZ25" s="49" t="s">
+      <c r="AZ25" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="50"/>
-      <c r="BD25" s="50"/>
-      <c r="BE25" s="50"/>
-      <c r="BF25" s="50"/>
-      <c r="BG25" s="50"/>
-      <c r="BH25" s="50"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="50"/>
-      <c r="BK25" s="50"/>
-      <c r="BL25" s="50"/>
-      <c r="BM25" s="50"/>
-      <c r="BN25" s="50"/>
-      <c r="BO25" s="50"/>
-      <c r="BP25" s="50"/>
+      <c r="BA25" s="61"/>
+      <c r="BB25" s="61"/>
+      <c r="BC25" s="61"/>
+      <c r="BD25" s="61"/>
+      <c r="BE25" s="61"/>
+      <c r="BF25" s="61"/>
+      <c r="BG25" s="61"/>
+      <c r="BH25" s="61"/>
+      <c r="BI25" s="61"/>
+      <c r="BJ25" s="61"/>
+      <c r="BK25" s="61"/>
+      <c r="BL25" s="61"/>
+      <c r="BM25" s="61"/>
+      <c r="BN25" s="61"/>
+      <c r="BO25" s="61"/>
+      <c r="BP25" s="61"/>
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
       <c r="BS25" s="6"/>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -3671,7 +3789,7 @@
       <c r="BS26" s="6"/>
     </row>
     <row r="27" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3744,6 +3862,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AZ25:BP25"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="I13:W13"/>
+    <mergeCell ref="J15:U15"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="K19:X19"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AA6:AY6"/>
+    <mergeCell ref="K21:Y21"/>
+    <mergeCell ref="AA22:AY22"/>
+    <mergeCell ref="AC24:AU24"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="F9:O9"/>
@@ -3760,17 +3889,6 @@
     <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="AK4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AA6:AY6"/>
-    <mergeCell ref="K21:Y21"/>
-    <mergeCell ref="AA22:AY22"/>
-    <mergeCell ref="AC24:AU24"/>
-    <mergeCell ref="AZ25:BP25"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="I13:W13"/>
-    <mergeCell ref="J15:U15"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="K19:X19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3973,13 +4091,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -3992,18 +4115,13 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4187,15 +4305,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -4208,18 +4329,15 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4837,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D232F4BD-FA80-43A7-BD48-7BBE22C6D194}">
   <dimension ref="D3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4854,27 +4972,27 @@
   <sheetData>
     <row r="3" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="M4" s="70" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="M4" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="99"/>
     </row>
     <row r="5" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="45" t="s">
@@ -6191,247 +6309,240 @@
     </row>
     <row r="27" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="75"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88"/>
     </row>
     <row r="29" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80" t="s">
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="78" t="s">
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="76"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79">
         <v>2.121</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82">
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79">
         <f>G30*220*0.97</f>
         <v>452.62139999999999</v>
       </c>
-      <c r="K30" s="82"/>
-      <c r="L30" s="85"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="86"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="86"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84">
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81">
         <v>2.1259999999999999</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="89">
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="70">
         <f t="shared" ref="J33" si="7">G33*230*0.97</f>
         <v>474.31059999999997</v>
       </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="94"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84">
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81">
         <v>2.2250000000000001</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="89">
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="70">
         <f t="shared" ref="J36" si="8">G36*230*0.97</f>
         <v>496.39749999999998</v>
       </c>
-      <c r="K36" s="90"/>
-      <c r="L36" s="91"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="75"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="97"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81">
         <v>2.242</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="89">
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="70">
         <f t="shared" ref="J39" si="9">G39*230*0.97</f>
         <v>500.19019999999995</v>
       </c>
-      <c r="K39" s="90"/>
-      <c r="L39" s="91"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="94"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="75"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="97"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84">
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81">
         <v>2.3029999999999999</v>
       </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="89">
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="70">
         <f t="shared" ref="J42" si="10">G42*230*0.97</f>
         <v>513.7992999999999</v>
       </c>
-      <c r="K42" s="90"/>
-      <c r="L42" s="91"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="94"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="75"/>
     </row>
     <row r="44" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="87"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="100"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="J30:L32"/>
-    <mergeCell ref="J33:L35"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="J39:L41"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="D30:F32"/>
-    <mergeCell ref="D33:F35"/>
-    <mergeCell ref="D36:F38"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D39:F41"/>
     <mergeCell ref="D42:F44"/>
     <mergeCell ref="G30:I32"/>
@@ -6439,13 +6550,31 @@
     <mergeCell ref="G36:I38"/>
     <mergeCell ref="G39:I41"/>
     <mergeCell ref="G42:I44"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="D30:F32"/>
+    <mergeCell ref="D33:F35"/>
+    <mergeCell ref="D36:F38"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="J30:L32"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="J39:L41"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K26">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:K26">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+      <formula>600</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>600</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Considerations.xlsx
+++ b/Considerations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu\ti\MechProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\MechProjELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302001D-7CBF-4CD7-9158-64421718B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A2FB5-6DA0-4E75-90E6-BF549EBCBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="753" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5325" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offene Fragen  Risiken" sheetId="9" r:id="rId1"/>
@@ -1310,6 +1310,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1322,18 +1340,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,15 +1355,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,6 +1373,57 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1400,15 +1451,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,51 +1465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1473,7 +1473,7 @@
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1501,94 +1501,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1911,18 +1823,18 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="45.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="31" customWidth="1"/>
     <col min="6" max="6" width="32" style="32" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="32" customWidth="1"/>
-    <col min="8" max="12" width="11.44140625" style="31"/>
-    <col min="13" max="13" width="17.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="32" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="31"/>
+    <col min="13" max="13" width="17.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="37" t="s">
         <v>132</v>
       </c>
@@ -1952,7 +1864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>135</v>
       </c>
@@ -1975,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>136</v>
       </c>
@@ -1998,7 +1910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>62</v>
       </c>
@@ -2021,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +1953,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +1973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G13" s="36"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -2072,7 +1984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G14" s="36"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -2080,7 +1992,7 @@
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G15" s="36"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
@@ -2088,7 +2000,7 @@
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G16" s="36"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
@@ -2096,7 +2008,7 @@
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" s="36"/>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
@@ -2104,7 +2016,7 @@
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" s="36"/>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -2112,7 +2024,7 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" s="36"/>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
@@ -2120,7 +2032,7 @@
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="36"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
@@ -2128,7 +2040,7 @@
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="36"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
@@ -2136,7 +2048,7 @@
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" s="36"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -2144,7 +2056,7 @@
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2226,12 +2138,12 @@
       <selection activeCell="BZ31" sqref="BZ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="72" width="1.6640625" customWidth="1"/>
+    <col min="3" max="72" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AO2" s="9"/>
       <c r="AP2" s="9"/>
       <c r="AR2" s="9"/>
@@ -2241,285 +2153,285 @@
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
     </row>
-    <row r="3" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54" t="s">
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54" t="s">
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54" t="s">
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54" t="s">
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54" t="s">
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54" t="s">
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="55"/>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="52"/>
+      <c r="BN4" s="52"/>
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="59"/>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="58"/>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="58"/>
-      <c r="BM5" s="58"/>
-      <c r="BN5" s="58"/>
-      <c r="BO5" s="58"/>
-      <c r="BP5" s="58"/>
-      <c r="BQ5" s="58"/>
-      <c r="BR5" s="58"/>
-      <c r="BS5" s="59"/>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="61"/>
+      <c r="BG5" s="61"/>
+      <c r="BH5" s="61"/>
+      <c r="BI5" s="61"/>
+      <c r="BJ5" s="61"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="61"/>
+      <c r="BP5" s="61"/>
+      <c r="BQ5" s="61"/>
+      <c r="BR5" s="61"/>
+      <c r="BS5" s="62"/>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="56" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56"/>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56" t="s">
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
-      <c r="BQ6" s="56"/>
-      <c r="BR6" s="56"/>
-      <c r="BS6" s="57"/>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="60"/>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
@@ -2578,11 +2490,11 @@
       <c r="BR7" s="12"/>
       <c r="BS7" s="6"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2634,23 +2546,23 @@
       <c r="BR8" s="12"/>
       <c r="BS8" s="6"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -2708,8 +2620,8 @@
       <c r="BR9" s="12"/>
       <c r="BS9" s="6"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2760,27 +2672,27 @@
       <c r="BR10" s="12"/>
       <c r="BS10" s="6"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -2834,8 +2746,8 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="6"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B12" s="50"/>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2890,31 +2802,31 @@
       <c r="BR12" s="12"/>
       <c r="BS12" s="6"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B13" s="50"/>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="18"/>
@@ -2964,8 +2876,8 @@
       <c r="BR13" s="12"/>
       <c r="BS13" s="6"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3021,8 +2933,8 @@
       <c r="BR14" s="12"/>
       <c r="BS14" s="6"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3030,20 +2942,20 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -3071,8 +2983,8 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="6"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3105,8 +3017,8 @@
       <c r="BR16" s="12"/>
       <c r="BS16" s="6"/>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B17" s="56"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3115,21 +3027,21 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="18"/>
@@ -3178,8 +3090,8 @@
       <c r="BR17" s="12"/>
       <c r="BS17" s="6"/>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
+    <row r="18" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3235,8 +3147,8 @@
       <c r="BR18" s="12"/>
       <c r="BS18" s="6"/>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3245,22 +3157,22 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="19"/>
@@ -3309,8 +3221,8 @@
       <c r="BR19" s="12"/>
       <c r="BS19" s="6"/>
     </row>
-    <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3367,8 +3279,8 @@
       <c r="BR20" s="12"/>
       <c r="BS20" s="6"/>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
+    <row r="21" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B21" s="56"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3377,23 +3289,23 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="13"/>
@@ -3441,8 +3353,8 @@
       <c r="BR21" s="12"/>
       <c r="BS21" s="6"/>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3467,33 +3379,33 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="18"/>
-      <c r="AA22" s="62" t="s">
+      <c r="AA22" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
-      <c r="AV22" s="61"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="63"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="54"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
@@ -3515,8 +3427,8 @@
       <c r="BR22" s="12"/>
       <c r="BS22" s="6"/>
     </row>
-    <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3568,8 +3480,8 @@
       <c r="BR23" s="12"/>
       <c r="BS23" s="6"/>
     </row>
-    <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
+    <row r="24" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -3596,27 +3508,27 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="61" t="s">
+      <c r="AC24" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="61"/>
-      <c r="AS24" s="61"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="61"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
       <c r="AV24" s="12"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
@@ -3642,8 +3554,8 @@
       <c r="BR24" s="12"/>
       <c r="BS24" s="6"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B25" s="56"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -3693,31 +3605,31 @@
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="25"/>
-      <c r="AZ25" s="62" t="s">
+      <c r="AZ25" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="BA25" s="61"/>
-      <c r="BB25" s="61"/>
-      <c r="BC25" s="61"/>
-      <c r="BD25" s="61"/>
-      <c r="BE25" s="61"/>
-      <c r="BF25" s="61"/>
-      <c r="BG25" s="61"/>
-      <c r="BH25" s="61"/>
-      <c r="BI25" s="61"/>
-      <c r="BJ25" s="61"/>
-      <c r="BK25" s="61"/>
-      <c r="BL25" s="61"/>
-      <c r="BM25" s="61"/>
-      <c r="BN25" s="61"/>
-      <c r="BO25" s="61"/>
-      <c r="BP25" s="61"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+      <c r="BM25" s="50"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="50"/>
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
       <c r="BS25" s="6"/>
     </row>
-    <row r="26" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B26" s="56"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -3788,8 +3700,8 @@
       <c r="BR26" s="12"/>
       <c r="BS26" s="6"/>
     </row>
-    <row r="27" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51"/>
+    <row r="27" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="57"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3862,17 +3774,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AZ25:BP25"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="I13:W13"/>
-    <mergeCell ref="J15:U15"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="K19:X19"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AA6:AY6"/>
-    <mergeCell ref="K21:Y21"/>
-    <mergeCell ref="AA22:AY22"/>
-    <mergeCell ref="AC24:AU24"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="F9:O9"/>
@@ -3889,6 +3790,17 @@
     <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="AK4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AA6:AY6"/>
+    <mergeCell ref="K21:Y21"/>
+    <mergeCell ref="AA22:AY22"/>
+    <mergeCell ref="AC24:AU24"/>
+    <mergeCell ref="AZ25:BP25"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="I13:W13"/>
+    <mergeCell ref="J15:U15"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="K19:X19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3903,14 +3815,14 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="11.44140625" style="31"/>
-    <col min="6" max="6" width="15.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.44140625" style="31"/>
+    <col min="3" max="5" width="11.42578125" style="31"/>
+    <col min="6" max="6" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
       <c r="C6" s="65" t="s">
         <v>101</v>
       </c>
@@ -3921,7 +3833,7 @@
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="66" t="s">
         <v>100</v>
       </c>
@@ -3933,7 +3845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="64" t="s">
         <v>104</v>
       </c>
@@ -3945,7 +3857,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
@@ -3957,7 +3869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="64" t="s">
         <v>109</v>
       </c>
@@ -3969,7 +3881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="64" t="s">
         <v>111</v>
       </c>
@@ -3981,7 +3893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="64" t="s">
         <v>113</v>
       </c>
@@ -3993,104 +3905,123 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:D7"/>
@@ -4103,25 +4034,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4136,16 +4048,16 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.44140625" style="32"/>
-    <col min="5" max="5" width="11.44140625" style="31"/>
+    <col min="3" max="4" width="11.42578125" style="32"/>
+    <col min="5" max="5" width="11.42578125" style="31"/>
     <col min="6" max="6" width="20" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.44140625" style="31"/>
+    <col min="7" max="7" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
       <c r="C6" s="65" t="s">
         <v>114</v>
       </c>
@@ -4156,7 +4068,7 @@
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="68" t="s">
         <v>100</v>
       </c>
@@ -4171,140 +4083,161 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="67" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="67"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="67" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="67"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="67" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="67"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="67" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="67"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="67"/>
       <c r="D37" s="67"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:D7"/>
@@ -4317,27 +4250,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4351,14 +4263,14 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="31"/>
@@ -4367,7 +4279,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="31"/>
@@ -4376,7 +4288,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -4385,7 +4297,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
       <c r="C4" s="65" t="s">
         <v>114</v>
       </c>
@@ -4396,7 +4308,7 @@
       <c r="H4" s="65"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="68" t="s">
         <v>100</v>
       </c>
@@ -4426,16 +4338,16 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4449,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -4509,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D12" s="69" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4446,7 @@
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="69"/>
@@ -4542,7 +4454,7 @@
       <c r="H13" s="69"/>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D14" s="69"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
@@ -4550,7 +4462,7 @@
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
@@ -4558,7 +4470,7 @@
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
@@ -4566,7 +4478,7 @@
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="69"/>
@@ -4574,7 +4486,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
       <c r="F18" s="69"/>
@@ -4582,7 +4494,7 @@
       <c r="H18" s="69"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="69"/>
@@ -4590,7 +4502,7 @@
       <c r="H19" s="69"/>
       <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
@@ -4638,23 +4550,23 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4697,7 +4609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
@@ -4708,7 +4620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4719,7 +4631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -4730,7 +4642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -4741,7 +4653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4752,7 +4664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -4763,7 +4675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4774,7 +4686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4785,7 +4697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -4796,7 +4708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4807,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4847,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -4861,7 +4773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -4875,7 +4787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>66</v>
       </c>
@@ -4903,7 +4815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -4917,7 +4829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -4931,7 +4843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -4959,42 +4871,42 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="86" t="s">
+    <row r="3" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="M4" s="97" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="M4" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="99"/>
-    </row>
-    <row r="5" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+    </row>
+    <row r="5" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="45" t="s">
         <v>144</v>
       </c>
@@ -5047,7 +4959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="4:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D6" s="38">
         <v>0.4</v>
       </c>
@@ -5107,7 +5019,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="38">
         <v>0.5</v>
       </c>
@@ -5167,7 +5079,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="38">
         <v>0.7</v>
       </c>
@@ -5227,7 +5139,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="38">
         <v>0.8</v>
       </c>
@@ -5287,7 +5199,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="38">
         <v>1</v>
       </c>
@@ -5347,7 +5259,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="38">
         <v>1.25</v>
       </c>
@@ -5407,7 +5319,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="38">
         <v>1.5</v>
       </c>
@@ -5467,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="38">
         <v>1.75</v>
       </c>
@@ -5527,7 +5439,7 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="38">
         <v>2</v>
       </c>
@@ -5587,7 +5499,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="38">
         <v>2.5</v>
       </c>
@@ -5647,7 +5559,7 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="38">
         <v>3</v>
       </c>
@@ -5707,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="38">
         <v>10</v>
       </c>
@@ -5767,7 +5679,7 @@
         <v>1.6923076923076923</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="38">
         <v>11</v>
       </c>
@@ -5827,7 +5739,7 @@
         <v>1.5384615384615385</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="38">
         <v>13</v>
       </c>
@@ -5887,7 +5799,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="38">
         <v>19</v>
       </c>
@@ -5947,7 +5859,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="38">
         <v>20</v>
       </c>
@@ -6007,7 +5919,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="38">
         <v>22</v>
       </c>
@@ -6067,7 +5979,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="38">
         <v>40</v>
       </c>
@@ -6127,7 +6039,7 @@
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="38">
         <v>44</v>
       </c>
@@ -6187,7 +6099,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="38">
         <v>0.09</v>
       </c>
@@ -6247,7 +6159,7 @@
         <v>5.859375E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="39">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -6307,239 +6219,244 @@
         <v>0.1171875</v>
       </c>
     </row>
-    <row r="27" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="86" t="s">
+    <row r="27" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
-    </row>
-    <row r="29" spans="4:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="100" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="75"/>
+    </row>
+    <row r="29" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96" t="s">
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="89" t="s">
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D30" s="92" t="s">
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82">
         <v>2.121</v>
       </c>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79">
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82">
         <f>G30*220*0.97</f>
         <v>452.62139999999999</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="80"/>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D31" s="93"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="82"/>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D32" s="93"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" s="93" t="s">
+      <c r="K30" s="82"/>
+      <c r="L30" s="96"/>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="97"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="97"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81">
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79">
         <v>2.1259999999999999</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="70">
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="87">
         <f t="shared" ref="J33" si="7">G33*230*0.97</f>
         <v>474.31059999999997</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D34" s="93"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D35" s="93"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D36" s="93" t="s">
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="92"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81">
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79">
         <v>2.2250000000000001</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="70">
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="87">
         <f t="shared" ref="J36" si="8">G36*230*0.97</f>
         <v>496.39749999999998</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="93"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="75"/>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D38" s="93"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D39" s="93" t="s">
+      <c r="K36" s="88"/>
+      <c r="L36" s="89"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="92"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81">
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79">
         <v>2.242</v>
       </c>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="70">
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="87">
         <f t="shared" ref="J39" si="9">G39*230*0.97</f>
         <v>500.19019999999995</v>
       </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D40" s="93"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="75"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D41" s="93"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="85"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D42" s="93" t="s">
+      <c r="K39" s="88"/>
+      <c r="L39" s="89"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="92"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="100"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81">
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79">
         <v>2.3029999999999999</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="70">
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="87">
         <f t="shared" ref="J42" si="10">G42*230*0.97</f>
         <v>513.7992999999999</v>
       </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="93"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="75"/>
-    </row>
-    <row r="44" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="94"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="89"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="92"/>
+    </row>
+    <row r="44" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="J30:L32"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="J39:L41"/>
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D29:F29"/>
@@ -6556,23 +6473,18 @@
     <mergeCell ref="D33:F35"/>
     <mergeCell ref="D36:F38"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="J30:L32"/>
-    <mergeCell ref="J33:L35"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="J39:L41"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K26">
-    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:K26">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
       <formula>600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Considerations.xlsx
+++ b/Considerations.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\MechProjELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A2FB5-6DA0-4E75-90E6-BF549EBCBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC9505-D7E9-4001-8BF3-87070835621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5325" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offene Fragen  Risiken" sheetId="9" r:id="rId1"/>
     <sheet name="Projekt Plan" sheetId="4" r:id="rId2"/>
     <sheet name="Anforderungen Encoder" sheetId="6" r:id="rId3"/>
-    <sheet name="Anforderungen Microcontroller" sheetId="7" r:id="rId4"/>
-    <sheet name="Anforderungen Moto" sheetId="8" r:id="rId5"/>
-    <sheet name="Prio Matrix" sheetId="1" r:id="rId6"/>
-    <sheet name="Systemkomponenten" sheetId="3" r:id="rId7"/>
-    <sheet name="Drehbank Parameteridentifikatin" sheetId="5" r:id="rId8"/>
+    <sheet name="Anforderungen" sheetId="8" r:id="rId4"/>
+    <sheet name="Prio Matrix" sheetId="1" r:id="rId5"/>
+    <sheet name="Systemkomponenten" sheetId="3" r:id="rId6"/>
+    <sheet name="Drehbank Parameteridentifikatin" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="194">
   <si>
     <t>Komponente</t>
   </si>
@@ -427,21 +426,6 @@
     <t>Optisch</t>
   </si>
   <si>
-    <t>Anforderungen uC</t>
-  </si>
-  <si>
-    <t>Raspberry Pie Pico</t>
-  </si>
-  <si>
-    <t>Echtzeitfähig</t>
-  </si>
-  <si>
-    <t>Hardwareschnittstelle</t>
-  </si>
-  <si>
-    <t>Communication Port</t>
-  </si>
-  <si>
     <t>Frage</t>
   </si>
   <si>
@@ -578,6 +562,120 @@
   </si>
   <si>
     <t>Leistungsaufnahme Leitspindel (Werkzeug HSS Meißel)</t>
+  </si>
+  <si>
+    <t>Req.Nr/Komponente</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Pulses per Turn</t>
+  </si>
+  <si>
+    <t>Max RPM</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Richtungs erkennung</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Modular</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Eigene Spannungsversorgung</t>
+  </si>
+  <si>
+    <t>Anbringung</t>
+  </si>
+  <si>
+    <t>Min drehzahl</t>
+  </si>
+  <si>
+    <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>Versorgungs Spannung</t>
+  </si>
+  <si>
+    <t>Programmierbar</t>
+  </si>
+  <si>
+    <t>Ansteuerung</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>logisch</t>
+  </si>
+  <si>
+    <t>&gt; 100€</t>
+  </si>
+  <si>
+    <t>DIN Rail</t>
+  </si>
+  <si>
+    <t>&gt; 2000 ppt</t>
+  </si>
+  <si>
+    <t>&gt; 2000 rpm</t>
+  </si>
+  <si>
+    <t>&lt; 60mm</t>
+  </si>
+  <si>
+    <t>Schrauben</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>&lt; 150€</t>
+  </si>
+  <si>
+    <t>3-D Druck</t>
+  </si>
+  <si>
+    <t>&lt; 100€</t>
+  </si>
+  <si>
+    <t>&gt; 1000 ppt</t>
+  </si>
+  <si>
+    <t>&gt; 24V &lt; 50V</t>
+  </si>
+  <si>
+    <t>&lt; 1rpm</t>
+  </si>
+  <si>
+    <t>&lt; 0.3Nm</t>
+  </si>
+  <si>
+    <t>&gt; 3000rpm</t>
+  </si>
+  <si>
+    <t>&gt; 2</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>&gt; 200kB</t>
+  </si>
+  <si>
+    <t>&gt; 10</t>
   </si>
 </sst>
 </file>
@@ -707,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1281,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1190,7 +1316,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1308,53 +1434,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,15 +1514,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,18 +1592,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,47 +1610,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1474,16 +1651,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1501,6 +1668,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1820,7 +1997,7 @@
   <dimension ref="C7:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,52 +2013,52 @@
   <sheetData>
     <row r="7" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="37" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>3</v>
@@ -1889,25 +2066,25 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="34" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="30" x14ac:dyDescent="0.25">
@@ -1915,19 +2092,19 @@
         <v>62</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>4</v>
@@ -1938,19 +2115,19 @@
         <v>3</v>
       </c>
       <c r="D11" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="N11" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="N11" s="32" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
@@ -1958,103 +2135,103 @@
         <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="N12" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="N12" s="32" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G13" s="36"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
       <c r="N13" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G14" s="36"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G15" s="36"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G16" s="36"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" s="36"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" s="36"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" s="36"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="36"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="36"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" s="36"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" s="36"/>
@@ -2161,174 +2338,174 @@
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52" t="s">
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52" t="s">
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52" t="s">
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52" t="s">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52" t="s">
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52" t="s">
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52" t="s">
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="59"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="62"/>
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62"/>
+      <c r="BP4" s="62"/>
+      <c r="BQ4" s="62"/>
+      <c r="BR4" s="62"/>
+      <c r="BS4" s="63"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
-      <c r="BJ5" s="61"/>
-      <c r="BK5" s="61"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="61"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="61"/>
-      <c r="BP5" s="61"/>
-      <c r="BQ5" s="61"/>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="62"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66"/>
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="66"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="66"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="67"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -2337,101 +2514,101 @@
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="53" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53" t="s">
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="60"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
+      <c r="BQ6" s="64"/>
+      <c r="BR6" s="64"/>
+      <c r="BS6" s="65"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
@@ -2494,7 +2671,7 @@
       <c r="A8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2547,22 +2724,22 @@
       <c r="BS8" s="6"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -2621,7 +2798,7 @@
       <c r="BS9" s="6"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2673,26 +2850,26 @@
       <c r="BS10" s="6"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -2747,7 +2924,7 @@
       <c r="BS11" s="6"/>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2803,30 +2980,30 @@
       <c r="BS12" s="6"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="18"/>
@@ -2877,7 +3054,7 @@
       <c r="BS13" s="6"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2934,7 +3111,7 @@
       <c r="BS14" s="6"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2942,20 +3119,20 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -2984,7 +3161,7 @@
       <c r="BS15" s="6"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3018,7 +3195,7 @@
       <c r="BS16" s="6"/>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3027,21 +3204,21 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="18"/>
@@ -3091,7 +3268,7 @@
       <c r="BS17" s="6"/>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3148,7 +3325,7 @@
       <c r="BS18" s="6"/>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3157,22 +3334,22 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="19"/>
@@ -3222,7 +3399,7 @@
       <c r="BS19" s="6"/>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3280,7 +3457,7 @@
       <c r="BS20" s="6"/>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3289,23 +3466,23 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="13"/>
@@ -3354,7 +3531,7 @@
       <c r="BS21" s="6"/>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3379,33 +3556,33 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="18"/>
-      <c r="AA22" s="49" t="s">
+      <c r="AA22" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="54"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="71"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
@@ -3428,7 +3605,7 @@
       <c r="BS22" s="6"/>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3481,7 +3658,7 @@
       <c r="BS23" s="6"/>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -3508,27 +3685,27 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="50" t="s">
+      <c r="AC24" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
       <c r="AV24" s="12"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
@@ -3555,7 +3732,7 @@
       <c r="BS24" s="6"/>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -3605,31 +3782,31 @@
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="25"/>
-      <c r="AZ25" s="49" t="s">
+      <c r="AZ25" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="50"/>
-      <c r="BD25" s="50"/>
-      <c r="BE25" s="50"/>
-      <c r="BF25" s="50"/>
-      <c r="BG25" s="50"/>
-      <c r="BH25" s="50"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="50"/>
-      <c r="BK25" s="50"/>
-      <c r="BL25" s="50"/>
-      <c r="BM25" s="50"/>
-      <c r="BN25" s="50"/>
-      <c r="BO25" s="50"/>
-      <c r="BP25" s="50"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="69"/>
+      <c r="BE25" s="69"/>
+      <c r="BF25" s="69"/>
+      <c r="BG25" s="69"/>
+      <c r="BH25" s="69"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="69"/>
+      <c r="BL25" s="69"/>
+      <c r="BM25" s="69"/>
+      <c r="BN25" s="69"/>
+      <c r="BO25" s="69"/>
+      <c r="BP25" s="69"/>
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
       <c r="BS25" s="6"/>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -3701,7 +3878,7 @@
       <c r="BS26" s="6"/>
     </row>
     <row r="27" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3774,6 +3951,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AZ25:BP25"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="I13:W13"/>
+    <mergeCell ref="J15:U15"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="K19:X19"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AA6:AY6"/>
+    <mergeCell ref="K21:Y21"/>
+    <mergeCell ref="AA22:AY22"/>
+    <mergeCell ref="AC24:AU24"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="F9:O9"/>
@@ -3790,17 +3978,6 @@
     <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="AK4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AA6:AY6"/>
-    <mergeCell ref="K21:Y21"/>
-    <mergeCell ref="AA22:AY22"/>
-    <mergeCell ref="AC24:AU24"/>
-    <mergeCell ref="AZ25:BP25"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="I13:W13"/>
-    <mergeCell ref="J15:U15"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="K19:X19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3823,21 +4000,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="28" t="s">
         <v>102</v>
       </c>
@@ -3846,10 +4023,10 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="31" t="s">
         <v>105</v>
       </c>
@@ -3858,10 +4035,10 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="31" t="s">
         <v>108</v>
       </c>
@@ -3870,10 +4047,10 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="31" t="s">
         <v>110</v>
       </c>
@@ -3882,10 +4059,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="31" t="s">
         <v>112</v>
       </c>
@@ -3894,10 +4071,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="31" t="s">
         <v>56</v>
       </c>
@@ -3906,110 +4083,115 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -4022,18 +4204,13 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4041,301 +4218,491 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD30FDAB-72D0-4ABB-ACB0-5EC0BAA04E2D}">
-  <dimension ref="C6:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966DD9C-32B9-42AC-8D7D-E5F84A7C120D}">
+  <dimension ref="C1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.42578125" style="32"/>
-    <col min="5" max="5" width="11.42578125" style="31"/>
-    <col min="6" max="6" width="20" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="31"/>
+    <col min="3" max="3" width="25.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="48" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="67"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="67"/>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C4" s="49"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="67"/>
+      <c r="C10" s="111">
+        <v>1</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="110">
+        <v>2</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="110">
+        <v>3</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="110">
+        <v>4</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="110">
+        <v>5</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="110">
+        <v>6</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="110">
+        <v>7</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="110">
+        <v>8</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="110">
+        <v>9</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="E18" s="110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="117"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="111">
+        <v>1</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="110">
+        <v>2</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="110">
+        <v>3</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="110">
+        <v>4</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="110">
+        <v>5</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="110"/>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="117"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="111">
+        <v>1</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="110">
+        <v>2</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="110">
+        <v>3</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="110">
+        <v>4</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="110">
+        <v>5</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="110">
+        <v>6</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="110">
+        <v>7</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="117"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="111">
+        <v>1</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="110">
+        <v>2</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="110">
+        <v>3</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="110">
+        <v>4</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="110">
+        <v>5</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="110">
+        <v>6</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="110">
+        <v>7</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="117"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="111">
+        <v>1</v>
+      </c>
+      <c r="D42" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="110">
+        <v>2</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="110">
+        <v>3</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="110">
+        <v>4</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="110">
+        <v>5</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="110" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="110">
+        <v>6</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966DD9C-32B9-42AC-8D7D-E5F84A7C120D}">
-  <dimension ref="C1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C4" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,78 +4804,78 @@
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4542,12 +4909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D907E-7CEF-49CA-8285-44590294C8A1}">
   <dimension ref="B3:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,11 +5230,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D232F4BD-FA80-43A7-BD48-7BBE22C6D194}">
   <dimension ref="D3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -4884,37 +5251,37 @@
   <sheetData>
     <row r="3" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="M4" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="D4" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
+      <c r="M4" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="94"/>
     </row>
     <row r="5" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="45" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="47">
         <v>100</v>
@@ -4932,31 +5299,31 @@
         <v>1700</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="U5" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="4:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4964,7 +5331,7 @@
         <v>0.4</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F6" s="43">
         <f>U6</f>
@@ -4997,7 +5364,7 @@
         <v>40</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P6" s="38">
         <v>80</v>
@@ -5012,7 +5379,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U6" s="38">
         <f>(N6/P6)*(P6/Q6)*(R6/S6)</f>
@@ -5024,7 +5391,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F7" s="43">
         <f>U7</f>
@@ -5057,7 +5424,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P7" s="38">
         <v>80</v>
@@ -5072,7 +5439,7 @@
         <v>80</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" ref="U7:U24" si="5">(N7/P7)*(P7/Q7)*(R7/S7)</f>
@@ -5084,7 +5451,7 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F8" s="43">
         <f t="shared" ref="F8:F26" si="6">U8</f>
@@ -5117,7 +5484,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P8" s="38">
         <v>80</v>
@@ -5132,7 +5499,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
@@ -5144,7 +5511,7 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F9" s="43">
         <f t="shared" si="6"/>
@@ -5177,7 +5544,7 @@
         <v>40</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P9" s="38">
         <v>80</v>
@@ -5192,7 +5559,7 @@
         <v>50</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U9" s="38">
         <f t="shared" si="5"/>
@@ -5204,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F10" s="43">
         <f t="shared" si="6"/>
@@ -5237,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P10" s="38">
         <v>80</v>
@@ -5252,7 +5619,7 @@
         <v>75</v>
       </c>
       <c r="T10" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U10" s="38">
         <f t="shared" si="5"/>
@@ -5264,7 +5631,7 @@
         <v>1.25</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F11" s="43">
         <f t="shared" si="6"/>
@@ -5297,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P11" s="38">
         <v>80</v>
@@ -5312,7 +5679,7 @@
         <v>60</v>
       </c>
       <c r="T11" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U11" s="38">
         <f t="shared" si="5"/>
@@ -5324,7 +5691,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F12" s="43">
         <f t="shared" si="6"/>
@@ -5357,7 +5724,7 @@
         <v>40</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P12" s="38">
         <v>80</v>
@@ -5372,7 +5739,7 @@
         <v>50</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U12" s="38">
         <f t="shared" si="5"/>
@@ -5384,7 +5751,7 @@
         <v>1.75</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F13" s="43">
         <f t="shared" si="6"/>
@@ -5417,7 +5784,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P13" s="38">
         <v>80</v>
@@ -5432,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U13" s="38">
         <f t="shared" si="5"/>
@@ -5444,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F14" s="43">
         <f t="shared" si="6"/>
@@ -5477,7 +5844,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P14" s="38">
         <v>80</v>
@@ -5492,7 +5859,7 @@
         <v>40</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U14" s="38">
         <f t="shared" si="5"/>
@@ -5504,7 +5871,7 @@
         <v>2.5</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F15" s="43">
         <f t="shared" si="6"/>
@@ -5537,7 +5904,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P15" s="38">
         <v>80</v>
@@ -5552,7 +5919,7 @@
         <v>30</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U15" s="38">
         <f t="shared" si="5"/>
@@ -5564,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F16" s="43">
         <f t="shared" si="6"/>
@@ -5597,7 +5964,7 @@
         <v>40</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P16" s="38">
         <v>80</v>
@@ -5612,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U16" s="38">
         <f t="shared" si="5"/>
@@ -5624,7 +5991,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F17" s="43">
         <f t="shared" si="6"/>
@@ -5657,7 +6024,7 @@
         <v>40</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P17" s="38">
         <v>80</v>
@@ -5672,7 +6039,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U17" s="38">
         <f t="shared" si="5"/>
@@ -5684,7 +6051,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" si="6"/>
@@ -5717,7 +6084,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P18" s="38">
         <v>80</v>
@@ -5732,7 +6099,7 @@
         <v>65</v>
       </c>
       <c r="T18" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U18" s="38">
         <f t="shared" si="5"/>
@@ -5744,7 +6111,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F19" s="43">
         <f t="shared" si="6"/>
@@ -5777,7 +6144,7 @@
         <v>40</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P19" s="38">
         <v>80</v>
@@ -5792,7 +6159,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U19" s="38">
         <f t="shared" si="5"/>
@@ -5804,7 +6171,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F20" s="43">
         <f t="shared" si="6"/>
@@ -5837,7 +6204,7 @@
         <v>40</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P20" s="38">
         <v>80</v>
@@ -5852,7 +6219,7 @@
         <v>75</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U20" s="38">
         <f t="shared" si="5"/>
@@ -5864,7 +6231,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F21" s="43">
         <f t="shared" si="6"/>
@@ -5897,7 +6264,7 @@
         <v>40</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P21" s="38">
         <v>80</v>
@@ -5912,7 +6279,7 @@
         <v>65</v>
       </c>
       <c r="T21" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U21" s="38">
         <f t="shared" si="5"/>
@@ -5924,7 +6291,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F22" s="43">
         <f t="shared" si="6"/>
@@ -5957,7 +6324,7 @@
         <v>40</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P22" s="38">
         <v>80</v>
@@ -5972,7 +6339,7 @@
         <v>65</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U22" s="38">
         <f t="shared" si="5"/>
@@ -5984,7 +6351,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F23" s="43">
         <f t="shared" si="6"/>
@@ -6017,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P23" s="38">
         <v>50</v>
@@ -6032,7 +6399,7 @@
         <v>65</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U23" s="38">
         <f t="shared" si="5"/>
@@ -6044,7 +6411,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F24" s="43">
         <f t="shared" si="6"/>
@@ -6077,7 +6444,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P24" s="38">
         <v>60</v>
@@ -6092,7 +6459,7 @@
         <v>65</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U24" s="38">
         <f t="shared" si="5"/>
@@ -6104,7 +6471,7 @@
         <v>0.09</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F25" s="43">
         <f t="shared" si="6"/>
@@ -6152,7 +6519,7 @@
         <v>80</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U25" s="38">
         <f>(N25/O25)*(P25/Q25)*(R25/S25)</f>
@@ -6164,7 +6531,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F26" s="44">
         <f t="shared" si="6"/>
@@ -6212,7 +6579,7 @@
         <v>80</v>
       </c>
       <c r="T26" s="39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U26" s="39">
         <f>(N26/O26)*(P26/Q26)*(R26/S26)</f>
@@ -6221,242 +6588,237 @@
     </row>
     <row r="27" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="75"/>
+      <c r="D28" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
     </row>
     <row r="29" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="D29" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82">
+      <c r="D30" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85">
         <v>2.121</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82">
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85">
         <f>G30*220*0.97</f>
         <v>452.62139999999999</v>
       </c>
-      <c r="K30" s="82"/>
-      <c r="L30" s="96"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="97"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="97"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79">
+      <c r="D33" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87">
         <v>2.1259999999999999</v>
       </c>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="87">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="76">
         <f t="shared" ref="J33" si="7">G33*230*0.97</f>
         <v>474.31059999999997</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79">
+      <c r="D36" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87">
         <v>2.2250000000000001</v>
       </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="87">
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="76">
         <f t="shared" ref="J36" si="8">G36*230*0.97</f>
         <v>496.39749999999998</v>
       </c>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="92"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="91"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79">
+      <c r="D39" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87">
         <v>2.242</v>
       </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="87">
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="76">
         <f t="shared" ref="J39" si="9">G39*230*0.97</f>
         <v>500.19019999999995</v>
       </c>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="78"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="92"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="81"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="91"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79">
+      <c r="D42" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87">
         <v>2.3029999999999999</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="87">
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="76">
         <f t="shared" ref="J42" si="10">G42*230*0.97</f>
         <v>513.7992999999999</v>
       </c>
-      <c r="K42" s="88"/>
-      <c r="L42" s="89"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="92"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="81"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="95"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="J30:L32"/>
-    <mergeCell ref="J33:L35"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="J39:L41"/>
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D29:F29"/>
@@ -6473,18 +6835,23 @@
     <mergeCell ref="D33:F35"/>
     <mergeCell ref="D36:F38"/>
     <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="J30:L32"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="J39:L41"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K26">
     <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:K26">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>600</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
       <formula>600</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Considerations.xlsx
+++ b/Considerations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\MechProjELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC9505-D7E9-4001-8BF3-87070835621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD9E8C2-2051-44DE-BAE2-8E8388645D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5325" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offene Fragen  Risiken" sheetId="9" r:id="rId1"/>
@@ -375,13 +375,7 @@
     <t>Vollständige Systemintegration</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>In work</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
   <si>
     <t>Anforderung</t>
@@ -676,6 +670,12 @@
   </si>
   <si>
     <t>&gt; 10</t>
+  </si>
+  <si>
+    <t>Finished In time</t>
+  </si>
+  <si>
+    <t>Extra Time</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1457,9 +1457,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1469,21 +1508,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,15 +1523,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,6 +1535,57 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1544,15 +1613,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,84 +1628,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2013,52 +2021,52 @@
   <sheetData>
     <row r="7" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="28" t="s">
-        <v>116</v>
-      </c>
       <c r="N7" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>3</v>
@@ -2066,25 +2074,25 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="34" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="30" x14ac:dyDescent="0.25">
@@ -2092,19 +2100,19 @@
         <v>62</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>4</v>
@@ -2115,19 +2123,19 @@
         <v>3</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="N11" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
@@ -2135,103 +2143,103 @@
         <v>4</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="36"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="N12" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G13" s="36"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="N13" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G14" s="36"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G15" s="36"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G16" s="36"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" s="36"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" s="36"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" s="36"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="36"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="36"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" s="36"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" s="36"/>
@@ -2311,12 +2319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD42D481-3DE8-4CF1-900C-17766BD9A35E}">
   <dimension ref="A2:BS27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BZ31" sqref="BZ31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BZ14" sqref="BZ14:CC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="72" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2333,282 +2342,282 @@
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62" t="s">
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62" t="s">
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62" t="s">
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62" t="s">
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62" t="s">
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="63"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="73"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="66"/>
-      <c r="BB5" s="66"/>
-      <c r="BC5" s="66"/>
-      <c r="BD5" s="66"/>
-      <c r="BE5" s="66"/>
-      <c r="BF5" s="66"/>
-      <c r="BG5" s="66"/>
-      <c r="BH5" s="66"/>
-      <c r="BI5" s="66"/>
-      <c r="BJ5" s="66"/>
-      <c r="BK5" s="66"/>
-      <c r="BL5" s="66"/>
-      <c r="BM5" s="66"/>
-      <c r="BN5" s="66"/>
-      <c r="BO5" s="66"/>
-      <c r="BP5" s="66"/>
-      <c r="BQ5" s="66"/>
-      <c r="BR5" s="66"/>
-      <c r="BS5" s="67"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="75"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="75"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
+      <c r="BR5" s="75"/>
+      <c r="BS5" s="76"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="64" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64" t="s">
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="65"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
+      <c r="BQ6" s="69"/>
+      <c r="BR6" s="69"/>
+      <c r="BS6" s="74"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
@@ -2669,9 +2678,9 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="58"/>
+        <v>193</v>
+      </c>
+      <c r="B8" s="71"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2724,22 +2733,22 @@
       <c r="BS8" s="6"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -2798,7 +2807,7 @@
       <c r="BS9" s="6"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2850,34 +2859,34 @@
       <c r="BS10" s="6"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="19"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="119"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
@@ -2924,7 +2933,7 @@
       <c r="BS11" s="6"/>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2980,67 +2989,67 @@
       <c r="BS12" s="6"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="12"/>
-      <c r="BH13" s="12"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="120"/>
+      <c r="AU13" s="120"/>
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="121"/>
+      <c r="AZ13" s="120"/>
+      <c r="BA13" s="120"/>
+      <c r="BB13" s="120"/>
+      <c r="BC13" s="120"/>
+      <c r="BD13" s="120"/>
+      <c r="BE13" s="120"/>
+      <c r="BF13" s="120"/>
+      <c r="BG13" s="120"/>
+      <c r="BH13" s="120"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
       <c r="BK13" s="12"/>
@@ -3054,7 +3063,7 @@
       <c r="BS13" s="6"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3111,7 +3120,7 @@
       <c r="BS14" s="6"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3119,20 +3128,20 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -3161,7 +3170,7 @@
       <c r="BS15" s="6"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3195,7 +3204,7 @@
       <c r="BS16" s="6"/>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3204,40 +3213,40 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
@@ -3268,7 +3277,7 @@
       <c r="BS17" s="6"/>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3325,7 +3334,7 @@
       <c r="BS18" s="6"/>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3334,22 +3343,22 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="19"/>
@@ -3399,7 +3408,7 @@
       <c r="BS19" s="6"/>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3457,7 +3466,7 @@
       <c r="BS20" s="6"/>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3466,23 +3475,23 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="13"/>
@@ -3531,7 +3540,7 @@
       <c r="BS21" s="6"/>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3556,33 +3565,33 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="18"/>
-      <c r="AA22" s="70" t="s">
+      <c r="AA22" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="71"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="116"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
@@ -3605,7 +3614,7 @@
       <c r="BS22" s="6"/>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -3658,7 +3667,7 @@
       <c r="BS23" s="6"/>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -3685,27 +3694,27 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="69" t="s">
+      <c r="AC24" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="114"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="114"/>
+      <c r="AL24" s="114"/>
+      <c r="AM24" s="114"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
       <c r="AV24" s="12"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
@@ -3732,7 +3741,7 @@
       <c r="BS24" s="6"/>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -3782,31 +3791,31 @@
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="25"/>
-      <c r="AZ25" s="70" t="s">
+      <c r="AZ25" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
-      <c r="BF25" s="69"/>
-      <c r="BG25" s="69"/>
-      <c r="BH25" s="69"/>
-      <c r="BI25" s="69"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="69"/>
-      <c r="BL25" s="69"/>
-      <c r="BM25" s="69"/>
-      <c r="BN25" s="69"/>
-      <c r="BO25" s="69"/>
-      <c r="BP25" s="69"/>
+      <c r="BA25" s="114"/>
+      <c r="BB25" s="114"/>
+      <c r="BC25" s="114"/>
+      <c r="BD25" s="114"/>
+      <c r="BE25" s="114"/>
+      <c r="BF25" s="114"/>
+      <c r="BG25" s="114"/>
+      <c r="BH25" s="114"/>
+      <c r="BI25" s="114"/>
+      <c r="BJ25" s="114"/>
+      <c r="BK25" s="114"/>
+      <c r="BL25" s="114"/>
+      <c r="BM25" s="114"/>
+      <c r="BN25" s="114"/>
+      <c r="BO25" s="114"/>
+      <c r="BP25" s="114"/>
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
       <c r="BS25" s="6"/>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -3878,7 +3887,7 @@
       <c r="BS26" s="6"/>
     </row>
     <row r="27" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -3950,18 +3959,10 @@
       <c r="BS27" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="CA18:CA23">
+    <sortCondition ref="CA18:CA23"/>
+  </sortState>
   <mergeCells count="27">
-    <mergeCell ref="AZ25:BP25"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="I13:W13"/>
-    <mergeCell ref="J15:U15"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="K19:X19"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AA6:AY6"/>
-    <mergeCell ref="K21:Y21"/>
-    <mergeCell ref="AA22:AY22"/>
-    <mergeCell ref="AC24:AU24"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="C7:N7"/>
     <mergeCell ref="F9:O9"/>
@@ -3978,6 +3979,17 @@
     <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="AK4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AA6:AY6"/>
+    <mergeCell ref="K21:Y21"/>
+    <mergeCell ref="AA22:AY22"/>
+    <mergeCell ref="AC24:AU24"/>
+    <mergeCell ref="AZ25:BP25"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="I13:W13"/>
+    <mergeCell ref="J15:U15"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="K19:X19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4000,81 +4012,81 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="28" t="s">
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="72" t="s">
+      <c r="F8" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="31" t="s">
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="72" t="s">
+      <c r="F9" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="31" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F10" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="72" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="31" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="31" t="s">
-        <v>112</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="72"/>
+      <c r="C12" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="78"/>
       <c r="E12" s="31" t="s">
         <v>56</v>
       </c>
@@ -4083,103 +4095,122 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:D7"/>
@@ -4192,25 +4223,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4221,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966DD9C-32B9-42AC-8D7D-E5F84A7C120D}">
   <dimension ref="C1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -4256,12 +4268,12 @@
     </row>
     <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
       <c r="C4" s="49"/>
-      <c r="D4" s="108"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="49"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="51"/>
@@ -4275,420 +4287,420 @@
     <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>121</v>
+        <v>154</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>119</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="111">
+      <c r="C10" s="60">
         <v>1</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="110">
+      <c r="C11" s="59">
         <v>2</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>193</v>
+      <c r="E11" s="59" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="110">
+      <c r="C12" s="59">
         <v>3</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="110" t="s">
-        <v>192</v>
+      <c r="E12" s="59" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="110">
+      <c r="C13" s="59">
         <v>4</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>192</v>
+      <c r="E13" s="59" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="110">
+      <c r="C14" s="59">
         <v>5</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="110">
+      <c r="C15" s="59">
         <v>6</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="110" t="s">
-        <v>191</v>
+      <c r="E15" s="59" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="110">
+      <c r="C16" s="59">
         <v>7</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="110" t="s">
-        <v>190</v>
+      <c r="E16" s="59" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="110">
+      <c r="C17" s="59">
         <v>8</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="59" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="110">
+      <c r="C18" s="59">
         <v>9</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="110" t="s">
-        <v>184</v>
+      <c r="E18" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="65" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="55"/>
-      <c r="E19" s="117"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="111">
+      <c r="C20" s="60">
         <v>1</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="111" t="s">
-        <v>189</v>
+      <c r="E20" s="60" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="110">
+      <c r="C21" s="59">
         <v>2</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="110" t="s">
-        <v>188</v>
+      <c r="E21" s="59" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="110">
+      <c r="C22" s="59">
         <v>3</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="110" t="s">
-        <v>182</v>
+      <c r="E22" s="59" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="110">
+      <c r="C23" s="59">
         <v>4</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>187</v>
+        <v>165</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="110">
+      <c r="C24" s="59">
         <v>5</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="110"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="60">
+        <v>1</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="59">
+        <v>2</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="59">
+        <v>3</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="111">
-        <v>1</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="111" t="s">
+      <c r="E28" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="110">
-        <v>2</v>
-      </c>
-      <c r="D27" s="54" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="59">
+        <v>4</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="110">
-        <v>3</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="110">
-        <v>4</v>
-      </c>
-      <c r="D29" s="54" t="s">
+      <c r="E29" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="110" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="110">
+      <c r="C30" s="59">
         <v>5</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="110" t="s">
-        <v>185</v>
+        <v>107</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="110">
+      <c r="C31" s="59">
         <v>6</v>
       </c>
       <c r="D31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="110" t="s">
+      <c r="E31" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="59">
+        <v>7</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="60">
+        <v>1</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="110">
-        <v>7</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="110" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="59">
+        <v>2</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="116" t="s">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="59">
         <v>3</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="117"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="111">
-        <v>1</v>
-      </c>
-      <c r="D34" s="112" t="s">
+      <c r="D36" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="111" t="s">
+      <c r="E36" s="59" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="110">
-        <v>2</v>
-      </c>
-      <c r="D35" s="54" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="59">
+        <v>4</v>
+      </c>
+      <c r="D37" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="E37" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="59">
+        <v>5</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="59" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="110">
-        <v>3</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="110">
-        <v>4</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="110">
-        <v>5</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="110">
+      <c r="C39" s="59">
         <v>6</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="110" t="s">
-        <v>184</v>
+      <c r="E39" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="110">
+      <c r="C40" s="59">
         <v>7</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="110" t="s">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="116" t="s">
-        <v>129</v>
+      <c r="C41" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="D41" s="55"/>
-      <c r="E41" s="117"/>
+      <c r="E41" s="66"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="111">
+      <c r="C42" s="60">
         <v>1</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="59">
+        <v>2</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="59">
+        <v>3</v>
+      </c>
+      <c r="D44" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="111" t="s">
+      <c r="E44" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="110">
-        <v>2</v>
-      </c>
-      <c r="D43" s="54" t="s">
+    <row r="45" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="59">
+        <v>4</v>
+      </c>
+      <c r="D45" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="110" t="s">
+      <c r="E45" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="59">
+        <v>5</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="59" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="110">
-        <v>3</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="110">
-        <v>4</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="110" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="110">
-        <v>5</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="110">
+      <c r="C47" s="59">
         <v>6</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="110" t="s">
-        <v>182</v>
+      <c r="E47" s="59" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4804,78 +4816,78 @@
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4947,7 +4959,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
@@ -4956,7 +4968,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -5100,13 +5112,13 @@
         <v>64</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -5251,37 +5263,37 @@
   <sheetData>
     <row r="3" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
-      <c r="M4" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
+      <c r="D4" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="M4" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
     </row>
     <row r="5" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="47">
         <v>100</v>
@@ -5299,31 +5311,31 @@
         <v>1700</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N5" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="R5" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="S5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>142</v>
-      </c>
       <c r="U5" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="4:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5331,7 +5343,7 @@
         <v>0.4</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="43">
         <f>U6</f>
@@ -5364,7 +5376,7 @@
         <v>40</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P6" s="38">
         <v>80</v>
@@ -5379,7 +5391,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U6" s="38">
         <f>(N6/P6)*(P6/Q6)*(R6/S6)</f>
@@ -5391,7 +5403,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="43">
         <f>U7</f>
@@ -5424,7 +5436,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P7" s="38">
         <v>80</v>
@@ -5439,7 +5451,7 @@
         <v>80</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" ref="U7:U24" si="5">(N7/P7)*(P7/Q7)*(R7/S7)</f>
@@ -5451,7 +5463,7 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="43">
         <f t="shared" ref="F8:F26" si="6">U8</f>
@@ -5484,7 +5496,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P8" s="38">
         <v>80</v>
@@ -5499,7 +5511,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
@@ -5511,7 +5523,7 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="43">
         <f t="shared" si="6"/>
@@ -5544,7 +5556,7 @@
         <v>40</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P9" s="38">
         <v>80</v>
@@ -5559,7 +5571,7 @@
         <v>50</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U9" s="38">
         <f t="shared" si="5"/>
@@ -5571,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="43">
         <f t="shared" si="6"/>
@@ -5604,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P10" s="38">
         <v>80</v>
@@ -5619,7 +5631,7 @@
         <v>75</v>
       </c>
       <c r="T10" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U10" s="38">
         <f t="shared" si="5"/>
@@ -5631,7 +5643,7 @@
         <v>1.25</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="43">
         <f t="shared" si="6"/>
@@ -5664,7 +5676,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P11" s="38">
         <v>80</v>
@@ -5679,7 +5691,7 @@
         <v>60</v>
       </c>
       <c r="T11" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U11" s="38">
         <f t="shared" si="5"/>
@@ -5691,7 +5703,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="43">
         <f t="shared" si="6"/>
@@ -5724,7 +5736,7 @@
         <v>40</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P12" s="38">
         <v>80</v>
@@ -5739,7 +5751,7 @@
         <v>50</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U12" s="38">
         <f t="shared" si="5"/>
@@ -5751,7 +5763,7 @@
         <v>1.75</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="43">
         <f t="shared" si="6"/>
@@ -5784,7 +5796,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P13" s="38">
         <v>80</v>
@@ -5799,7 +5811,7 @@
         <v>40</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U13" s="38">
         <f t="shared" si="5"/>
@@ -5811,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="43">
         <f t="shared" si="6"/>
@@ -5844,7 +5856,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P14" s="38">
         <v>80</v>
@@ -5859,7 +5871,7 @@
         <v>40</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U14" s="38">
         <f t="shared" si="5"/>
@@ -5871,7 +5883,7 @@
         <v>2.5</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="43">
         <f t="shared" si="6"/>
@@ -5904,7 +5916,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" s="38">
         <v>80</v>
@@ -5919,7 +5931,7 @@
         <v>30</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U15" s="38">
         <f t="shared" si="5"/>
@@ -5931,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="43">
         <f t="shared" si="6"/>
@@ -5964,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P16" s="38">
         <v>80</v>
@@ -5979,7 +5991,7 @@
         <v>25</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U16" s="38">
         <f t="shared" si="5"/>
@@ -5991,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="43">
         <f t="shared" si="6"/>
@@ -6024,7 +6036,7 @@
         <v>40</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P17" s="38">
         <v>80</v>
@@ -6039,7 +6051,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U17" s="38">
         <f t="shared" si="5"/>
@@ -6051,7 +6063,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" si="6"/>
@@ -6084,7 +6096,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P18" s="38">
         <v>80</v>
@@ -6099,7 +6111,7 @@
         <v>65</v>
       </c>
       <c r="T18" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U18" s="38">
         <f t="shared" si="5"/>
@@ -6111,7 +6123,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="43">
         <f t="shared" si="6"/>
@@ -6144,7 +6156,7 @@
         <v>40</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P19" s="38">
         <v>80</v>
@@ -6159,7 +6171,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U19" s="38">
         <f t="shared" si="5"/>
@@ -6171,7 +6183,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="43">
         <f t="shared" si="6"/>
@@ -6204,7 +6216,7 @@
         <v>40</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P20" s="38">
         <v>80</v>
@@ -6219,7 +6231,7 @@
         <v>75</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U20" s="38">
         <f t="shared" si="5"/>
@@ -6231,7 +6243,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="43">
         <f t="shared" si="6"/>
@@ -6264,7 +6276,7 @@
         <v>40</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P21" s="38">
         <v>80</v>
@@ -6279,7 +6291,7 @@
         <v>65</v>
       </c>
       <c r="T21" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U21" s="38">
         <f t="shared" si="5"/>
@@ -6291,7 +6303,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="43">
         <f t="shared" si="6"/>
@@ -6324,7 +6336,7 @@
         <v>40</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P22" s="38">
         <v>80</v>
@@ -6339,7 +6351,7 @@
         <v>65</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U22" s="38">
         <f t="shared" si="5"/>
@@ -6351,7 +6363,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="43">
         <f t="shared" si="6"/>
@@ -6384,7 +6396,7 @@
         <v>40</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P23" s="38">
         <v>50</v>
@@ -6399,7 +6411,7 @@
         <v>65</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U23" s="38">
         <f t="shared" si="5"/>
@@ -6411,7 +6423,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" s="43">
         <f t="shared" si="6"/>
@@ -6444,7 +6456,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P24" s="38">
         <v>60</v>
@@ -6459,7 +6471,7 @@
         <v>65</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U24" s="38">
         <f t="shared" si="5"/>
@@ -6471,7 +6483,7 @@
         <v>0.09</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="43">
         <f t="shared" si="6"/>
@@ -6519,7 +6531,7 @@
         <v>80</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U25" s="38">
         <f>(N25/O25)*(P25/Q25)*(R25/S25)</f>
@@ -6531,7 +6543,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" s="44">
         <f t="shared" si="6"/>
@@ -6579,7 +6591,7 @@
         <v>80</v>
       </c>
       <c r="T26" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U26" s="39">
         <f>(N26/O26)*(P26/Q26)*(R26/S26)</f>
@@ -6588,237 +6600,242 @@
     </row>
     <row r="27" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
+      <c r="D28" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="4:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="104"/>
-      <c r="L29" s="105"/>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85">
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94">
         <v>2.121</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85">
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94">
         <f>G30*220*0.97</f>
         <v>452.62139999999999</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="108"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="100"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="109"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="100"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="109"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87">
+      <c r="D33" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91">
         <v>2.1259999999999999</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="76">
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="99">
         <f t="shared" ref="J33" si="7">G33*230*0.97</f>
         <v>474.31059999999997</v>
       </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="100"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="81"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="104"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="100"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87">
+      <c r="D36" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91">
         <v>2.2250000000000001</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="76">
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="99">
         <f t="shared" ref="J36" si="8">G36*230*0.97</f>
         <v>496.39749999999998</v>
       </c>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="100"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="81"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="100"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="91"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="112"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87">
+      <c r="D39" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91">
         <v>2.242</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="76">
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="99">
         <f t="shared" ref="J39" si="9">G39*230*0.97</f>
         <v>500.19019999999995</v>
       </c>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="100"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="81"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="100"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="91"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="112"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87">
+      <c r="D42" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91">
         <v>2.3029999999999999</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="76">
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="99">
         <f t="shared" ref="J42" si="10">G42*230*0.97</f>
         <v>513.7992999999999</v>
       </c>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="100"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="81"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="101"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="84"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J42:L44"/>
+    <mergeCell ref="J30:L32"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="J39:L41"/>
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D29:F29"/>
@@ -6835,11 +6852,6 @@
     <mergeCell ref="D33:F35"/>
     <mergeCell ref="D36:F38"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J42:L44"/>
-    <mergeCell ref="J30:L32"/>
-    <mergeCell ref="J33:L35"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="J39:L41"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K26">
     <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
